--- a/Data/COA_Research.xlsx
+++ b/Data/COA_Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregchick/Desktop/Dissertation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0870FECB-714F-F948-ADBD-65430EBD39F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730BE24C-BFB4-8D43-90E6-E3283CF4AAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9FBBFF36-6EC8-0349-B0EA-21F8EC6A0D9B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="267">
   <si>
     <t>Data</t>
   </si>
@@ -424,6 +424,420 @@
   </si>
   <si>
     <t>No - from website</t>
+  </si>
+  <si>
+    <t>Abilene Christian University</t>
+  </si>
+  <si>
+    <t>WAC</t>
+  </si>
+  <si>
+    <t>Alabama A&amp;M University</t>
+  </si>
+  <si>
+    <t>SWAC</t>
+  </si>
+  <si>
+    <t>Alabama State University</t>
+  </si>
+  <si>
+    <t>University at Albany, SUNY</t>
+  </si>
+  <si>
+    <t>CAA</t>
+  </si>
+  <si>
+    <t>Alcorn State University</t>
+  </si>
+  <si>
+    <t>University of Arkansas at Pine Bluff</t>
+  </si>
+  <si>
+    <t>Austin Peay State University</t>
+  </si>
+  <si>
+    <t>Ohio Valley</t>
+  </si>
+  <si>
+    <t>Bethune–Cookman University</t>
+  </si>
+  <si>
+    <t>Brown University</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Bryant University</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>Bucknell University</t>
+  </si>
+  <si>
+    <t>Patriot</t>
+  </si>
+  <si>
+    <t>Butler University</t>
+  </si>
+  <si>
+    <t>Pioneer</t>
+  </si>
+  <si>
+    <t>California Polytechnic State University</t>
+  </si>
+  <si>
+    <t>Big Sky</t>
+  </si>
+  <si>
+    <t>Campbell University</t>
+  </si>
+  <si>
+    <t>Big South</t>
+  </si>
+  <si>
+    <t>University of Central Arkansas</t>
+  </si>
+  <si>
+    <t>Central Connecticut State University</t>
+  </si>
+  <si>
+    <t>Charleston Southern University</t>
+  </si>
+  <si>
+    <t>University of Tennessee at Chattanooga</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>The Citadel, The Military College of South Carolina</t>
+  </si>
+  <si>
+    <t>Colgate University</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
+    <t>Cornell University</t>
+  </si>
+  <si>
+    <t>Dartmouth College</t>
+  </si>
+  <si>
+    <t>Davidson College</t>
+  </si>
+  <si>
+    <t>University of Dayton</t>
+  </si>
+  <si>
+    <t>University of Delaware</t>
+  </si>
+  <si>
+    <t>Delaware State University</t>
+  </si>
+  <si>
+    <t>MEAC</t>
+  </si>
+  <si>
+    <t>Drake University</t>
+  </si>
+  <si>
+    <t>Duquesne University</t>
+  </si>
+  <si>
+    <t>East Tennessee State University</t>
+  </si>
+  <si>
+    <t>Eastern Illinois University</t>
+  </si>
+  <si>
+    <t>Eastern Kentucky University</t>
+  </si>
+  <si>
+    <t>Eastern Washington University</t>
+  </si>
+  <si>
+    <t>Elon University</t>
+  </si>
+  <si>
+    <t>Florida A&amp;M University</t>
+  </si>
+  <si>
+    <t>Fordham University</t>
+  </si>
+  <si>
+    <t>Furman University</t>
+  </si>
+  <si>
+    <t>Gardner–Webb University</t>
+  </si>
+  <si>
+    <t>Georgetown University</t>
+  </si>
+  <si>
+    <t>Grambling State University</t>
+  </si>
+  <si>
+    <t>Hampton University</t>
+  </si>
+  <si>
+    <t>Harvard University</t>
+  </si>
+  <si>
+    <t>College of the Holy Cross</t>
+  </si>
+  <si>
+    <t>Houston Baptist University</t>
+  </si>
+  <si>
+    <t>Southland</t>
+  </si>
+  <si>
+    <t>Howard University</t>
+  </si>
+  <si>
+    <t>University of Idaho</t>
+  </si>
+  <si>
+    <t>Idaho State University</t>
+  </si>
+  <si>
+    <t>Illinois State University</t>
+  </si>
+  <si>
+    <t>Missouri Valley</t>
+  </si>
+  <si>
+    <t>University of the Incarnate Word</t>
+  </si>
+  <si>
+    <t>Indiana State University</t>
+  </si>
+  <si>
+    <t>Jackson State University</t>
+  </si>
+  <si>
+    <t>Jacksonville State University</t>
+  </si>
+  <si>
+    <t>James Madison University</t>
+  </si>
+  <si>
+    <t>Kennesaw State University</t>
+  </si>
+  <si>
+    <t>Lafayette College</t>
+  </si>
+  <si>
+    <t>Lamar University</t>
+  </si>
+  <si>
+    <t>Lehigh University</t>
+  </si>
+  <si>
+    <t>Long Island University</t>
+  </si>
+  <si>
+    <t>University of Maine</t>
+  </si>
+  <si>
+    <t>Marist College</t>
+  </si>
+  <si>
+    <t>McNeese State University</t>
+  </si>
+  <si>
+    <t>Mercer University</t>
+  </si>
+  <si>
+    <t>Mississippi Valley State University</t>
+  </si>
+  <si>
+    <t>Missouri State University</t>
+  </si>
+  <si>
+    <t>Monmouth University</t>
+  </si>
+  <si>
+    <t>University of Montana</t>
+  </si>
+  <si>
+    <t>Montana State University</t>
+  </si>
+  <si>
+    <t>Morehead State University</t>
+  </si>
+  <si>
+    <t>Morgan State University</t>
+  </si>
+  <si>
+    <t>Murray State University</t>
+  </si>
+  <si>
+    <t>University of New Hampshire</t>
+  </si>
+  <si>
+    <t>Nicholls State University</t>
+  </si>
+  <si>
+    <t>Norfolk State University</t>
+  </si>
+  <si>
+    <t>North Carolina A&amp;T State University</t>
+  </si>
+  <si>
+    <t>North Carolina Central University</t>
+  </si>
+  <si>
+    <t>University of North Dakota</t>
+  </si>
+  <si>
+    <t>North Dakota State University</t>
+  </si>
+  <si>
+    <t>Northern Arizona University</t>
+  </si>
+  <si>
+    <t>University of Northern Colorado</t>
+  </si>
+  <si>
+    <t>University of Northern Iowa</t>
+  </si>
+  <si>
+    <t>Northwestern State University</t>
+  </si>
+  <si>
+    <t>University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Portland State University</t>
+  </si>
+  <si>
+    <t>Prairie View A&amp;M University</t>
+  </si>
+  <si>
+    <t>Presbyterian College</t>
+  </si>
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t>University of Rhode Island</t>
+  </si>
+  <si>
+    <t>University of Richmond</t>
+  </si>
+  <si>
+    <t>Robert Morris University</t>
+  </si>
+  <si>
+    <t>California State University, Sacramento</t>
+  </si>
+  <si>
+    <t>Sacred Heart University</t>
+  </si>
+  <si>
+    <t>Saint Francis University</t>
+  </si>
+  <si>
+    <t>Sam Houston State University</t>
+  </si>
+  <si>
+    <t>Samford University</t>
+  </si>
+  <si>
+    <t>University of San Diego</t>
+  </si>
+  <si>
+    <t>South Carolina State University</t>
+  </si>
+  <si>
+    <t>University of South Dakota</t>
+  </si>
+  <si>
+    <t>South Dakota State University</t>
+  </si>
+  <si>
+    <t>Southeast Missouri State University</t>
+  </si>
+  <si>
+    <t>Southeastern Louisiana University</t>
+  </si>
+  <si>
+    <t>Southern University</t>
+  </si>
+  <si>
+    <t>Southern Illinois University Carbondale</t>
+  </si>
+  <si>
+    <t>Southern Utah University</t>
+  </si>
+  <si>
+    <t>Stephen F. Austin State University</t>
+  </si>
+  <si>
+    <t>Stetson University</t>
+  </si>
+  <si>
+    <t>Stony Brook University</t>
+  </si>
+  <si>
+    <t>Tennessee State University</t>
+  </si>
+  <si>
+    <t>Tennessee Technological University</t>
+  </si>
+  <si>
+    <t>Texas Southern University</t>
+  </si>
+  <si>
+    <t>Towson University</t>
+  </si>
+  <si>
+    <t>University of California, Davis</t>
+  </si>
+  <si>
+    <t>University of Tennessee at Martin</t>
+  </si>
+  <si>
+    <t>Valparaiso University</t>
+  </si>
+  <si>
+    <t>Villanova University</t>
+  </si>
+  <si>
+    <t>Virginia Military Institute</t>
+  </si>
+  <si>
+    <t>Wagner College</t>
+  </si>
+  <si>
+    <t>Weber State University</t>
+  </si>
+  <si>
+    <t>Western Carolina University</t>
+  </si>
+  <si>
+    <t>Western Illinois University</t>
+  </si>
+  <si>
+    <t>College of William &amp; Mary</t>
+  </si>
+  <si>
+    <t>Wofford College</t>
+  </si>
+  <si>
+    <t>Yale University</t>
+  </si>
+  <si>
+    <t>Youngstown State University</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
   </si>
 </sst>
 </file>
@@ -460,7 +874,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -470,65 +884,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,23 +1220,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D467CA51-21CA-7748-B85A-78D1A786CD86}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5" style="2" customWidth="1"/>
+    <col min="7" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,29 +1252,32 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -908,7 +1291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -922,7 +1305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -936,7 +1319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -950,7 +1333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -964,7 +1347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -978,7 +1361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -992,7 +1375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -1006,7 +1389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
@@ -1020,7 +1403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
@@ -1034,7 +1417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -1048,7 +1431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>72</v>
       </c>
@@ -1062,7 +1445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1076,7 +1459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1090,7 +1473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -1117,16 +1500,16 @@
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1143,16 +1526,16 @@
       <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1169,10 +1552,10 @@
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1189,16 +1572,16 @@
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1215,16 +1598,16 @@
       <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1241,16 +1624,16 @@
       <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1267,10 +1650,10 @@
       <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1287,19 +1670,19 @@
       <c r="D24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>2015</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1316,19 +1699,19 @@
       <c r="D25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>2015</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1345,11 +1728,11 @@
       <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="I26" t="s">
+      <c r="E26" s="3"/>
+      <c r="I26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1366,19 +1749,19 @@
       <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>2015</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1395,16 +1778,16 @@
       <c r="D28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1421,16 +1804,16 @@
       <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>2015</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1447,16 +1830,16 @@
       <c r="D30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>2015</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1473,19 +1856,19 @@
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>2015</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1502,16 +1885,16 @@
       <c r="D32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1556,16 +1939,16 @@
       <c r="D35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1582,19 +1965,19 @@
       <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>2015</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1625,13 +2008,13 @@
       <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1883,7 +2266,6 @@
       <c r="C56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -1895,7 +2277,6 @@
       <c r="C57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
@@ -1907,7 +2288,6 @@
       <c r="C58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
@@ -1919,7 +2299,6 @@
       <c r="C59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
@@ -1931,7 +2310,6 @@
       <c r="C60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
@@ -1943,7 +2321,6 @@
       <c r="C61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
@@ -1955,7 +2332,6 @@
       <c r="C62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
@@ -1967,17 +2343,16 @@
       <c r="C63" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1991,11 +2366,10 @@
       <c r="C64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="I64" t="s">
+      <c r="I64" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2009,11 +2383,10 @@
       <c r="C65" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="I65" t="s">
+      <c r="I65" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2027,18 +2400,1358 @@
       <c r="C66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="I66" t="s">
+      <c r="I66" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="2" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K66" xr:uid="{D467CA51-21CA-7748-B85A-78D1A786CD86}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF1106">
-    <sortCondition ref="D2:D1106"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF1101">
+    <sortCondition ref="D2:D1101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/COA_Research.xlsx
+++ b/Data/COA_Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregchick/Desktop/Dissertation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730BE24C-BFB4-8D43-90E6-E3283CF4AAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC72788-682B-A447-B4F2-44462FC5C960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9FBBFF36-6EC8-0349-B0EA-21F8EC6A0D9B}"/>
   </bookViews>
@@ -1223,8 +1223,8 @@
   <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2409,139 +2409,139 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>5</v>
@@ -2552,37 +2552,40 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>5</v>
@@ -2593,95 +2596,95 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>5</v>
@@ -2692,202 +2695,205 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>5</v>
@@ -2898,29 +2904,29 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>5</v>
@@ -2931,18 +2937,18 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>5</v>
@@ -2953,81 +2959,84 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>5</v>
@@ -3038,125 +3047,128 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>5</v>
@@ -3167,156 +3179,156 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -3332,95 +3344,95 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>5</v>
@@ -3431,62 +3443,62 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>5</v>
@@ -3497,95 +3509,95 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>247</v>
+        <v>137</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>5</v>
@@ -3596,162 +3608,150 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K66" xr:uid="{D467CA51-21CA-7748-B85A-78D1A786CD86}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF1101">
-    <sortCondition ref="D2:D1101"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A67:D189">
+    <sortCondition ref="D67:D189"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/COA_Research.xlsx
+++ b/Data/COA_Research.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregchick/Desktop/Dissertation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC72788-682B-A447-B4F2-44462FC5C960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9FEE7E-A94A-2940-A7C5-39E47FF92AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9FBBFF36-6EC8-0349-B0EA-21F8EC6A0D9B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17320" windowHeight="16940" activeTab="1" xr2:uid="{9FBBFF36-6EC8-0349-B0EA-21F8EC6A0D9B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="COA_Scholarship" sheetId="1" r:id="rId1"/>
+    <sheet name="Conference_Division_Changes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">COA_Scholarship!$A$1:$K$66</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="314">
   <si>
     <t>Data</t>
   </si>
@@ -838,6 +839,150 @@
   </si>
   <si>
     <t>xxxxxx</t>
+  </si>
+  <si>
+    <t>Division I-AA Independents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberty completed a two-year transition from the FCS to the FBS in 2018 and became fully bowl-eligible starting with the 2019 season. It remained an NCAA Division I FBS Independent.
+</t>
+  </si>
+  <si>
+    <t>unitid</t>
+  </si>
+  <si>
+    <t>institution name</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>IC2019.NCAA/NAIA conference number football</t>
+  </si>
+  <si>
+    <t>Big South Conference</t>
+  </si>
+  <si>
+    <t>FCS Independent -&gt; Big South</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Division Change</t>
+  </si>
+  <si>
+    <t>Conference Change</t>
+  </si>
+  <si>
+    <t>Northeast Conference</t>
+  </si>
+  <si>
+    <t>NE-10(D-II) -&gt; NEC</t>
+  </si>
+  <si>
+    <t>Merrimack College</t>
+  </si>
+  <si>
+    <t>Northeast 10 Conference</t>
+  </si>
+  <si>
+    <t>University of North Alabama</t>
+  </si>
+  <si>
+    <t>Independent Midwest Region</t>
+  </si>
+  <si>
+    <t>Savannah State University</t>
+  </si>
+  <si>
+    <t>Mid-Eastern Athletic Conference</t>
+  </si>
+  <si>
+    <t>MEAC -&gt; SIAC (D-II)</t>
+  </si>
+  <si>
+    <t>Big Sky -&gt; FCS Independent</t>
+  </si>
+  <si>
+    <t>Big Sky Conference</t>
+  </si>
+  <si>
+    <t>Sun Belt -&gt; Big Sky (FCS)</t>
+  </si>
+  <si>
+    <t>New Mexico State University-Main Campus</t>
+  </si>
+  <si>
+    <t>New Mexico State left the Sun Belt Conference following the 2017 season and will compete as an FBS independent</t>
+  </si>
+  <si>
+    <t>Liberty began a two-year transition from FCS in 2017. The Flames will be counted as an FBS independent for scheduling purposes in 2018, but will not be fully bowl-eligible until the 2019 season. However, they may participate in a bowl in 2018 if they have at least six eligible wins and there are not enough bowl-eligible teams to fill all the spots.</t>
+  </si>
+  <si>
+    <t>Pioneer-&gt;Big South</t>
+  </si>
+  <si>
+    <t>MEAC -&gt; FCS Independent</t>
+  </si>
+  <si>
+    <t>Sun Belt (FBS) -&gt; Big Sky</t>
+  </si>
+  <si>
+    <t>Independent Southeast Region</t>
+  </si>
+  <si>
+    <t>Gulf South (D-II) -&gt; FCS Independent</t>
+  </si>
+  <si>
+    <t>Big Sky -&gt; FCS Independent. North Dakota will officially join the Missouri Valley Football Conference in 2020, and is classified as an FCS independent for 2018 and 2019. However, to accommodate pre-existing game contracts, it still plays its Big Sky Conference schedule and conference games still count for their opponents.</t>
+  </si>
+  <si>
+    <t>None -&gt; Conference USA. The UAB football team returned after a two-year absence. The program was shut down by school administrators following the 2014 season but was reinstated less than a year later.</t>
+  </si>
+  <si>
+    <t>FCS Independent -&gt; Sun Belt Coastal Carolina was in the second year of its FBS transition. It was counted as an FBS opponent for scheduling purposes, with full FBS membership and bowl eligibility following in the 2018 season.</t>
+  </si>
+  <si>
+    <t>University of Massachusetts-Amherst</t>
+  </si>
+  <si>
+    <t>Independent Northeast Region</t>
+  </si>
+  <si>
+    <t>MAC (D-II) -&gt; FBS Independent</t>
+  </si>
+  <si>
+    <t>Big South -&gt; FCS Independent</t>
+  </si>
+  <si>
+    <t>Southern Conference</t>
+  </si>
+  <si>
+    <t>FCS Independent -&gt; SoCon</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>FBS Independent -&gt; The American</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCS Independent -&gt; Conference USA. transitioned from the Football Championship Subdivision (FCS) and played its first season in FBS as a provisional member, becoming a football-sponsoring member of Conference USA after joining as a non-football member in 2013.
+</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference USA -&gt; Terminated controversially shut down its football program following the 2014 season, after school administrators claimed that rising monetary costs made fielding an FBS team unfeasible.[2] Following public outcry and fundraising efforts, the school announced less than six months later that the football team would be reinstated.[3] UAB football returned to FBS and Conference USA for the 2017 season.
+</t>
+  </si>
+  <si>
+    <t>Existence Change</t>
+  </si>
+  <si>
+    <t>First season</t>
   </si>
 </sst>
 </file>
@@ -901,11 +1046,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,9 +1370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D467CA51-21CA-7748-B85A-78D1A786CD86}">
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E178" sqref="E178"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3755,4 +3903,686 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0D9B67-F931-AC4F-8B59-CC52BE3B18E2}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="78.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>232557</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
+      </c>
+      <c r="D2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>232265</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>192448</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>2019</v>
+      </c>
+      <c r="D4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>166850</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5">
+        <v>2019</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>101879</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
+      </c>
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>200280</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7">
+        <v>2019</v>
+      </c>
+      <c r="D7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>140960</v>
+      </c>
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8">
+        <v>2019</v>
+      </c>
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>142285</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>188030</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10">
+        <v>2018</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>232557</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>198136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12">
+        <v>2018</v>
+      </c>
+      <c r="D12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>232265</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+      <c r="D13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>142285</v>
+      </c>
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>101879</v>
+      </c>
+      <c r="B15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="D15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>200280</v>
+      </c>
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>218724</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>2017</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>100663</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>2017</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>166629</v>
+      </c>
+      <c r="B19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19">
+        <v>2016</v>
+      </c>
+      <c r="D19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>218724</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>2016</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>220075</v>
+      </c>
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21">
+        <v>2016</v>
+      </c>
+      <c r="D21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" t="s">
+        <v>306</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>199139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22">
+        <v>2015</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" t="s">
+        <v>308</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>100663</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>2015</v>
+      </c>
+      <c r="D24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>220075</v>
+      </c>
+      <c r="B25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25">
+        <v>2015</v>
+      </c>
+      <c r="D25" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26">
+        <v>2015</v>
+      </c>
+      <c r="D26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/COA_Research.xlsx
+++ b/Data/COA_Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregchick/Desktop/Dissertation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9FEE7E-A94A-2940-A7C5-39E47FF92AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B655427-F188-014B-8768-FD5417047104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17320" windowHeight="16940" activeTab="1" xr2:uid="{9FBBFF36-6EC8-0349-B0EA-21F8EC6A0D9B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17320" windowHeight="16940" xr2:uid="{9FBBFF36-6EC8-0349-B0EA-21F8EC6A0D9B}"/>
   </bookViews>
   <sheets>
     <sheet name="COA_Scholarship" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="384">
   <si>
     <t>Data</t>
   </si>
@@ -983,6 +983,216 @@
   </si>
   <si>
     <t>First season</t>
+  </si>
+  <si>
+    <t>Southern Conference (FCS) -&gt; Sun Belt</t>
+  </si>
+  <si>
+    <t>American Athletic Conference</t>
+  </si>
+  <si>
+    <t>Conference USA -&gt; The American</t>
+  </si>
+  <si>
+    <t>FBS independent -&gt; Sun Belt</t>
+  </si>
+  <si>
+    <t>University of Louisville</t>
+  </si>
+  <si>
+    <t>Atlantic Coast Conference</t>
+  </si>
+  <si>
+    <t>The American -&gt; ACC</t>
+  </si>
+  <si>
+    <t>University of Maryland-College Park</t>
+  </si>
+  <si>
+    <t>Big Ten Conference</t>
+  </si>
+  <si>
+    <t>ACC -&gt; Big Ten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCS Independent -&gt; Conference USA </t>
+  </si>
+  <si>
+    <t>Rutgers University-New Brunswick</t>
+  </si>
+  <si>
+    <t>The American -&gt; Big Ten</t>
+  </si>
+  <si>
+    <t>Sun Belt -&gt; Conference USA</t>
+  </si>
+  <si>
+    <t>Southland Conference</t>
+  </si>
+  <si>
+    <t>Independent -&gt; Southland</t>
+  </si>
+  <si>
+    <t>SoCon -&gt; Sun Belt (FBS)</t>
+  </si>
+  <si>
+    <t>Colonial Athletic Association</t>
+  </si>
+  <si>
+    <t>SoCon -&gt; CAA</t>
+  </si>
+  <si>
+    <t>Pioneer -&gt; SoCon</t>
+  </si>
+  <si>
+    <t>Independent -&gt; Big South</t>
+  </si>
+  <si>
+    <t>Independent -&gt; C-USA (FBS)</t>
+  </si>
+  <si>
+    <t>Big South -&gt; SoCon</t>
+  </si>
+  <si>
+    <t>CAA (FCS) -&gt; Sun Belt</t>
+  </si>
+  <si>
+    <t>WAC -&gt; FBS Independent</t>
+  </si>
+  <si>
+    <t>WAC -&gt; Conference USA</t>
+  </si>
+  <si>
+    <t>Division I Independents</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh-Pittsburgh Campus</t>
+  </si>
+  <si>
+    <t>Big East -&gt; ACC</t>
+  </si>
+  <si>
+    <t>WAC -&gt; Mountain West</t>
+  </si>
+  <si>
+    <t>Syracuse University</t>
+  </si>
+  <si>
+    <t>WAC -&gt; Sun Belt</t>
+  </si>
+  <si>
+    <t>Lone Star (D-II) -&gt; Independent</t>
+  </si>
+  <si>
+    <t>SUNY at Albany</t>
+  </si>
+  <si>
+    <t>NEC -&gt; CAA</t>
+  </si>
+  <si>
+    <t>New -&gt; Independent</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Pioneer Football League</t>
+  </si>
+  <si>
+    <t>New -&gt; Pioneer League</t>
+  </si>
+  <si>
+    <t>NEC -&gt; Independent</t>
+  </si>
+  <si>
+    <t>CAA -&gt; Independent</t>
+  </si>
+  <si>
+    <t>Big South -&gt; CAA</t>
+  </si>
+  <si>
+    <t>CAA (FCS) -&gt; MAC</t>
+  </si>
+  <si>
+    <t>University of Missouri-Columbia</t>
+  </si>
+  <si>
+    <t>Southeastern Conference</t>
+  </si>
+  <si>
+    <t>Big 12 -&gt; SEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCS Independent -&gt; Sun Belt  </t>
+  </si>
+  <si>
+    <t>Big Twelve Conference</t>
+  </si>
+  <si>
+    <t>Mountain West -&gt; Big 12</t>
+  </si>
+  <si>
+    <t>Big East Conference</t>
+  </si>
+  <si>
+    <t>MAC -&gt; Big East</t>
+  </si>
+  <si>
+    <t>Texas A &amp; M University-College Station</t>
+  </si>
+  <si>
+    <t>Southland (FCS) -&gt; WAC</t>
+  </si>
+  <si>
+    <t>FCS Independent -&gt; WAC</t>
+  </si>
+  <si>
+    <t>West Virginia University</t>
+  </si>
+  <si>
+    <t>Big East -&gt; Big 12</t>
+  </si>
+  <si>
+    <t>Great West Conference</t>
+  </si>
+  <si>
+    <t>California Polytechnic State University-San Luis Obispo</t>
+  </si>
+  <si>
+    <t>Great West -&gt; Big Sky</t>
+  </si>
+  <si>
+    <t>Independent -&gt; CAA</t>
+  </si>
+  <si>
+    <t>Missouri Valley Conference</t>
+  </si>
+  <si>
+    <t>Great West -&gt; MVFC</t>
+  </si>
+  <si>
+    <t>University of California-Davis</t>
+  </si>
+  <si>
+    <t>Mountain West -&gt; FBS Independent</t>
+  </si>
+  <si>
+    <t>Pacific-10 Conference</t>
+  </si>
+  <si>
+    <t>University of Colorado Boulder</t>
+  </si>
+  <si>
+    <t>Big 12 -&gt; Pac-12</t>
+  </si>
+  <si>
+    <t>University of Nebraska-Lincoln</t>
+  </si>
+  <si>
+    <t>Big 12 -&gt; Big Ten</t>
+  </si>
+  <si>
+    <t>Mountain West -&gt; Pac-12</t>
   </si>
 </sst>
 </file>
@@ -1370,9 +1580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D467CA51-21CA-7748-B85A-78D1A786CD86}">
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3907,16 +4117,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0D9B67-F931-AC4F-8B59-CC52BE3B18E2}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A77" zoomScale="86" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
     <col min="3" max="3" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="78.83203125" customWidth="1"/>
   </cols>
@@ -4582,6 +4792,1904 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>197869</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>2014</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>314</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>198464</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>2014</v>
+      </c>
+      <c r="D28" t="s">
+        <v>315</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>139931</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>2014</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>142285</v>
+      </c>
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30">
+        <v>2014</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>157289</v>
+      </c>
+      <c r="B31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31">
+        <v>2014</v>
+      </c>
+      <c r="D31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E31" t="s">
+        <v>320</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>163286</v>
+      </c>
+      <c r="B32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32">
+        <v>2014</v>
+      </c>
+      <c r="D32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>188030</v>
+      </c>
+      <c r="B33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33">
+        <v>2014</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>317</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>232982</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>2014</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>186380</v>
+      </c>
+      <c r="B35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35">
+        <v>2014</v>
+      </c>
+      <c r="D35" t="s">
+        <v>322</v>
+      </c>
+      <c r="E35" t="s">
+        <v>326</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>160755</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>2014</v>
+      </c>
+      <c r="D36" t="s">
+        <v>315</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>207971</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37">
+        <v>2014</v>
+      </c>
+      <c r="D37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" t="s">
+        <v>316</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>157951</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38">
+        <v>2014</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>222178</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39">
+        <v>2014</v>
+      </c>
+      <c r="D39" t="s">
+        <v>328</v>
+      </c>
+      <c r="E39" t="s">
+        <v>329</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>197869</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>2014</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>198516</v>
+      </c>
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41">
+        <v>2014</v>
+      </c>
+      <c r="D41" t="s">
+        <v>331</v>
+      </c>
+      <c r="E41" t="s">
+        <v>332</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>139931</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>2014</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>225399</v>
+      </c>
+      <c r="B43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43">
+        <v>2014</v>
+      </c>
+      <c r="D43" t="s">
+        <v>328</v>
+      </c>
+      <c r="E43" t="s">
+        <v>329</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>225627</v>
+      </c>
+      <c r="B44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44">
+        <v>2014</v>
+      </c>
+      <c r="D44" t="s">
+        <v>328</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>140447</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45">
+        <v>2014</v>
+      </c>
+      <c r="D45" t="s">
+        <v>305</v>
+      </c>
+      <c r="E45" t="s">
+        <v>333</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>185572</v>
+      </c>
+      <c r="B46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46">
+        <v>2014</v>
+      </c>
+      <c r="D46" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>232982</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>2014</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>335</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>234085</v>
+      </c>
+      <c r="B48" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48">
+        <v>2014</v>
+      </c>
+      <c r="D48" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>133669</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>2013</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>327</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>133951</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>2013</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>139940</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51">
+        <v>2013</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>337</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>225511</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>2013</v>
+      </c>
+      <c r="D52" t="s">
+        <v>315</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>142285</v>
+      </c>
+      <c r="B53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53">
+        <v>2013</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>338</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>159647</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>2013</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>220862</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <v>2013</v>
+      </c>
+      <c r="D55" t="s">
+        <v>315</v>
+      </c>
+      <c r="E55" t="s">
+        <v>316</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>220978</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56">
+        <v>2013</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>188030</v>
+      </c>
+      <c r="B57" t="s">
+        <v>290</v>
+      </c>
+      <c r="C57">
+        <v>2013</v>
+      </c>
+      <c r="D57" t="s">
+        <v>340</v>
+      </c>
+      <c r="E57" t="s">
+        <v>338</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>227216</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58">
+        <v>2013</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>215293</v>
+      </c>
+      <c r="B59" t="s">
+        <v>341</v>
+      </c>
+      <c r="C59">
+        <v>2013</v>
+      </c>
+      <c r="D59" t="s">
+        <v>319</v>
+      </c>
+      <c r="E59" t="s">
+        <v>342</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>122755</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>2013</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>228246</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61">
+        <v>2013</v>
+      </c>
+      <c r="D61" t="s">
+        <v>315</v>
+      </c>
+      <c r="E61" t="s">
+        <v>316</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>196413</v>
+      </c>
+      <c r="B62" t="s">
+        <v>344</v>
+      </c>
+      <c r="C62">
+        <v>2013</v>
+      </c>
+      <c r="D62" t="s">
+        <v>319</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>228459</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63">
+        <v>2013</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>345</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>132903</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64">
+        <v>2013</v>
+      </c>
+      <c r="D64" t="s">
+        <v>315</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>230728</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65">
+        <v>2013</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>343</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>229027</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66">
+        <v>2013</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>222178</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67">
+        <v>2013</v>
+      </c>
+      <c r="D67" t="s">
+        <v>328</v>
+      </c>
+      <c r="E67" t="s">
+        <v>346</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>196060</v>
+      </c>
+      <c r="B68" t="s">
+        <v>347</v>
+      </c>
+      <c r="C68">
+        <v>2013</v>
+      </c>
+      <c r="D68" t="s">
+        <v>331</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>199139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69">
+        <v>2013</v>
+      </c>
+      <c r="D69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" t="s">
+        <v>349</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>225399</v>
+      </c>
+      <c r="B70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70">
+        <v>2013</v>
+      </c>
+      <c r="D70" t="s">
+        <v>350</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>225627</v>
+      </c>
+      <c r="B71" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71">
+        <v>2013</v>
+      </c>
+      <c r="D71" t="s">
+        <v>328</v>
+      </c>
+      <c r="E71" t="s">
+        <v>346</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>140447</v>
+      </c>
+      <c r="B72" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72">
+        <v>2013</v>
+      </c>
+      <c r="D72" t="s">
+        <v>351</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>185572</v>
+      </c>
+      <c r="B73" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73">
+        <v>2013</v>
+      </c>
+      <c r="D73" t="s">
+        <v>267</v>
+      </c>
+      <c r="E73" t="s">
+        <v>353</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>232982</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74">
+        <v>2013</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>137546</v>
+      </c>
+      <c r="B75" t="s">
+        <v>247</v>
+      </c>
+      <c r="C75">
+        <v>2013</v>
+      </c>
+      <c r="D75" t="s">
+        <v>351</v>
+      </c>
+      <c r="E75" t="s">
+        <v>352</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>196097</v>
+      </c>
+      <c r="B76" t="s">
+        <v>248</v>
+      </c>
+      <c r="C76">
+        <v>2013</v>
+      </c>
+      <c r="D76" t="s">
+        <v>331</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>110556</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77">
+        <v>2012</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>343</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>141574</v>
+      </c>
+      <c r="B78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78">
+        <v>2012</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>166629</v>
+      </c>
+      <c r="B79" t="s">
+        <v>301</v>
+      </c>
+      <c r="C79">
+        <v>2012</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>356</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>178396</v>
+      </c>
+      <c r="B80" t="s">
+        <v>357</v>
+      </c>
+      <c r="C80">
+        <v>2012</v>
+      </c>
+      <c r="D80" t="s">
+        <v>358</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>182290</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81">
+        <v>2012</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>343</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>102094</v>
+      </c>
+      <c r="B82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82">
+        <v>2012</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>228875</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83">
+        <v>2012</v>
+      </c>
+      <c r="D83" t="s">
+        <v>361</v>
+      </c>
+      <c r="E83" t="s">
+        <v>362</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>216339</v>
+      </c>
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84">
+        <v>2012</v>
+      </c>
+      <c r="D84" t="s">
+        <v>363</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>228723</v>
+      </c>
+      <c r="B85" t="s">
+        <v>365</v>
+      </c>
+      <c r="C85">
+        <v>2012</v>
+      </c>
+      <c r="D85" t="s">
+        <v>358</v>
+      </c>
+      <c r="E85" t="s">
+        <v>359</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>228459</v>
+      </c>
+      <c r="B86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86">
+        <v>2012</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>229027</v>
+      </c>
+      <c r="B87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87">
+        <v>2012</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>367</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>238032</v>
+      </c>
+      <c r="B88" t="s">
+        <v>368</v>
+      </c>
+      <c r="C88">
+        <v>2012</v>
+      </c>
+      <c r="D88" t="s">
+        <v>361</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>110422</v>
+      </c>
+      <c r="B89" t="s">
+        <v>371</v>
+      </c>
+      <c r="C89">
+        <v>2012</v>
+      </c>
+      <c r="D89" t="s">
+        <v>370</v>
+      </c>
+      <c r="E89" t="s">
+        <v>372</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>139940</v>
+      </c>
+      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90">
+        <v>2012</v>
+      </c>
+      <c r="D90" t="s">
+        <v>331</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>200280</v>
+      </c>
+      <c r="B91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91">
+        <v>2012</v>
+      </c>
+      <c r="D91" t="s">
+        <v>288</v>
+      </c>
+      <c r="E91" t="s">
+        <v>372</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>219471</v>
+      </c>
+      <c r="B92" t="s">
+        <v>239</v>
+      </c>
+      <c r="C92">
+        <v>2012</v>
+      </c>
+      <c r="D92" t="s">
+        <v>374</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>230603</v>
+      </c>
+      <c r="B93" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93">
+        <v>2012</v>
+      </c>
+      <c r="D93" t="s">
+        <v>288</v>
+      </c>
+      <c r="E93" t="s">
+        <v>372</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>110644</v>
+      </c>
+      <c r="B94" t="s">
+        <v>376</v>
+      </c>
+      <c r="C94">
+        <v>2012</v>
+      </c>
+      <c r="D94" t="s">
+        <v>370</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>142115</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>2011</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>343</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>230038</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96">
+        <v>2011</v>
+      </c>
+      <c r="D96" t="s">
+        <v>350</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>126614</v>
+      </c>
+      <c r="B97" t="s">
+        <v>379</v>
+      </c>
+      <c r="C97">
+        <v>2011</v>
+      </c>
+      <c r="D97" t="s">
+        <v>378</v>
+      </c>
+      <c r="E97" t="s">
+        <v>380</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>181464</v>
+      </c>
+      <c r="B98" t="s">
+        <v>381</v>
+      </c>
+      <c r="C98">
+        <v>2011</v>
+      </c>
+      <c r="D98" t="s">
+        <v>322</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>230764</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99">
+        <v>2011</v>
+      </c>
+      <c r="D99" t="s">
+        <v>378</v>
+      </c>
+      <c r="E99" t="s">
+        <v>383</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/COA_Research.xlsx
+++ b/Data/COA_Research.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregchick/Desktop/Dissertation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B655427-F188-014B-8768-FD5417047104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1010C-F29B-E04B-BAE7-48E5B7706938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17320" windowHeight="16940" xr2:uid="{9FBBFF36-6EC8-0349-B0EA-21F8EC6A0D9B}"/>
+    <workbookView xWindow="18320" yWindow="-21100" windowWidth="15020" windowHeight="21100" xr2:uid="{9FBBFF36-6EC8-0349-B0EA-21F8EC6A0D9B}"/>
   </bookViews>
   <sheets>
     <sheet name="COA_Scholarship" sheetId="1" r:id="rId1"/>
-    <sheet name="Conference_Division_Changes" sheetId="2" r:id="rId2"/>
+    <sheet name="Changes" sheetId="2" r:id="rId2"/>
+    <sheet name="Conferences" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">COA_Scholarship!$A$1:$K$66</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="436">
   <si>
     <t>Data</t>
   </si>
@@ -1193,13 +1194,169 @@
   </si>
   <si>
     <t>Mountain West -&gt; Pac-12</t>
+  </si>
+  <si>
+    <t>Division I</t>
+  </si>
+  <si>
+    <t>Power 5</t>
+  </si>
+  <si>
+    <t>Big 12 Conference</t>
+  </si>
+  <si>
+    <t>Pac-12 Conference</t>
+  </si>
+  <si>
+    <t>Group of Five</t>
+  </si>
+  <si>
+    <t>FBS</t>
+  </si>
+  <si>
+    <t>FCS</t>
+  </si>
+  <si>
+    <t>Ivy League</t>
+  </si>
+  <si>
+    <t>Missouri Valley Football Conference</t>
+  </si>
+  <si>
+    <t>Ohio Valley Conference</t>
+  </si>
+  <si>
+    <t>Patriot League</t>
+  </si>
+  <si>
+    <t>Southwestern Athletic Conference</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>MVFC</t>
+  </si>
+  <si>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>OVC</t>
+  </si>
+  <si>
+    <t>PFL</t>
+  </si>
+  <si>
+    <t>SoCon</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>Big Ten</t>
+  </si>
+  <si>
+    <t>Big 12</t>
+  </si>
+  <si>
+    <t>Pac-12</t>
+  </si>
+  <si>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>The American</t>
+  </si>
+  <si>
+    <t>C-USA</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Sun Belt</t>
+  </si>
+  <si>
+    <t>Division II</t>
+  </si>
+  <si>
+    <t>California Collegiate Athletic Association</t>
+  </si>
+  <si>
+    <t>Central Atlantic Collegiate Conference</t>
+  </si>
+  <si>
+    <t>Central Intercollegiate Athletic Association</t>
+  </si>
+  <si>
+    <t>Conference Carolinas</t>
+  </si>
+  <si>
+    <t>East Coast Conference</t>
+  </si>
+  <si>
+    <t>Great American Conference</t>
+  </si>
+  <si>
+    <t>Great Lakes Intercollegiate Athletic Conference</t>
+  </si>
+  <si>
+    <t>Great Lakes Valley Conference</t>
+  </si>
+  <si>
+    <t>Great Midwest Athletic Conference</t>
+  </si>
+  <si>
+    <t>Great Northwest Athletic Conference</t>
+  </si>
+  <si>
+    <t>Gulf South Conference</t>
+  </si>
+  <si>
+    <t>Lone Star Conference</t>
+  </si>
+  <si>
+    <t>Mid-America Intercollegiate Athletics Association</t>
+  </si>
+  <si>
+    <t>Mountain East Conference</t>
+  </si>
+  <si>
+    <t>Northeast-10 Conference</t>
+  </si>
+  <si>
+    <t>Northern Sun Intercollegiate Conference</t>
+  </si>
+  <si>
+    <t>Pacific West Conference</t>
+  </si>
+  <si>
+    <t>Peach Belt Conference</t>
+  </si>
+  <si>
+    <t>Pennsylvania State Athletic Conference</t>
+  </si>
+  <si>
+    <t>Rocky Mountain Athletic Conference</t>
+  </si>
+  <si>
+    <t>South Atlantic Conference</t>
+  </si>
+  <si>
+    <t>Southern Intercollegiate Athletic Conference</t>
+  </si>
+  <si>
+    <t>Sunshine State Conference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1214,8 +1371,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1226,6 +1407,24 @@
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1256,7 +1455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1264,6 +1463,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1581,8 +1786,8 @@
   <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4119,16 +4324,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0D9B67-F931-AC4F-8B59-CC52BE3B18E2}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="78.83203125" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4157,7 +4366,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>232557</v>
       </c>
@@ -4677,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>199139</v>
       </c>
@@ -4720,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>100663</v>
       </c>
@@ -6689,6 +6898,386 @@
       <c r="H99">
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24EC4B6-A72A-6F4D-8AD0-6C81EB27A750}">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" zoomScale="131" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B57" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/COA_Research.xlsx
+++ b/Data/COA_Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregchick/Desktop/Dissertation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1010C-F29B-E04B-BAE7-48E5B7706938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2B04B4-12E7-594A-BDFA-17EC3FE26BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18320" yWindow="-21100" windowWidth="15020" windowHeight="21100" xr2:uid="{9FBBFF36-6EC8-0349-B0EA-21F8EC6A0D9B}"/>
+    <workbookView xWindow="1840" yWindow="-21020" windowWidth="31500" windowHeight="21100" xr2:uid="{9FBBFF36-6EC8-0349-B0EA-21F8EC6A0D9B}"/>
   </bookViews>
   <sheets>
     <sheet name="COA_Scholarship" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Conferences" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">COA_Scholarship!$A$1:$K$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">COA_Scholarship!$A$1:$L$80</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="436">
-  <si>
-    <t>Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="469">
   <si>
     <t>IPEDS ID</t>
   </si>
@@ -50,9 +47,6 @@
     <t>NCAA Subdivision</t>
   </si>
   <si>
-    <t>FBS Conference</t>
-  </si>
-  <si>
     <t>Appalachian State University</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>Texas State University</t>
   </si>
   <si>
-    <t>The University of Texas at El Paso</t>
-  </si>
-  <si>
     <t>The University of Texas at San Antonio</t>
   </si>
   <si>
@@ -837,9 +828,6 @@
   </si>
   <si>
     <t>Youngstown State University</t>
-  </si>
-  <si>
-    <t>xxxxxx</t>
   </si>
   <si>
     <t>Division I-AA Independents</t>
@@ -1350,13 +1338,124 @@
   </si>
   <si>
     <t>Sunshine State Conference</t>
+  </si>
+  <si>
+    <t>https://ecupirates.com/staff-directory</t>
+  </si>
+  <si>
+    <t>Left VM - Sarah Murray https://herdzone.com/staff-directory</t>
+  </si>
+  <si>
+    <t>https://riceowls.com/staff-directory</t>
+  </si>
+  <si>
+    <t>https://riceowls.com/documents/2019/4/15/FINALRice_Athletics_Compliance_Revised_2_1_19.pdf &amp; https://s3.amazonaws.com/riceowls.com/documents/2020/2/19/STUDENT_ATHLETE_HANDBOOK_2019_2020_final.pdf</t>
+  </si>
+  <si>
+    <t>Need to confirm date and if it covers miscellaneous expenses b/c two different versions of handbook have discrepancies if misc expenses are covered</t>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/sidearm.sites/smumustangs.com/documents/2016/6/29/FinancialAidRulesEd.pdf</t>
+  </si>
+  <si>
+    <t>Can't see specifically if misc expenses is covered and/or when it started</t>
+  </si>
+  <si>
+    <t>https://smumustangs.com/staff-directory</t>
+  </si>
+  <si>
+    <t>https://utepminers.com/staff-directory</t>
+  </si>
+  <si>
+    <t>https://utepminers.com/documents/2020/8/18//UTEP_Compliance_Policy_Procedures_Manual_Spring_2020_Update_version_final_2_.pdf?id=13777</t>
+  </si>
+  <si>
+    <t>There is mention of a COA Gap payment in the manual? Doesn't give start date. Does have a form acknowledging a COA Stipend (https://utepminers.com/documents/2018/10/29//2018_19_COA_Agreement.pdf?id=7550)</t>
+  </si>
+  <si>
+    <t>https://tulanegreenwave.com/documents/2018/8/2/2018_19_SA_Handbook.pdf</t>
+  </si>
+  <si>
+    <t>Need a start date</t>
+  </si>
+  <si>
+    <t>https://tulanegreenwave.com/staff-directory</t>
+  </si>
+  <si>
+    <t>https://uabsports.com/documents/2017/10/9//New_Student_Athlete_Survival_Guide.pdf?id=7687</t>
+  </si>
+  <si>
+    <t>https://uabsports.com/staff-directory</t>
+  </si>
+  <si>
+    <t>Just need how long?</t>
+  </si>
+  <si>
+    <t>https://ucfknights.com/staff-directory</t>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/uhcougars.com/documents/2020/5/15/UH_Dept_of_Athletics_Policies_Procedures.pdf</t>
+  </si>
+  <si>
+    <t>Does have full scholarship but that doesn't mention misc expenses. Don't know how long</t>
+  </si>
+  <si>
+    <t>https://uhcougars.com/staff-directory</t>
+  </si>
+  <si>
+    <t>https://gotigersgo.com/staff-directory</t>
+  </si>
+  <si>
+    <t>https://southernmiss.com/sports/2018/6/21/_compliance_.aspx</t>
+  </si>
+  <si>
+    <t>https://southernmiss.com/documents/2018/6/21/1111_genrel_2017_18_misc_non_event__S-A-Handbook-2017.pdf</t>
+  </si>
+  <si>
+    <t>Looks like it per the handbook but need to know when</t>
+  </si>
+  <si>
+    <t>https://tulsahurricane.com/staff-directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference  </t>
+  </si>
+  <si>
+    <t>University of Cincinnati</t>
+  </si>
+  <si>
+    <t>University of South Florida</t>
+  </si>
+  <si>
+    <t>Tulane University</t>
+  </si>
+  <si>
+    <t>Wichita State University</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>University of Texas at San Antonio</t>
+  </si>
+  <si>
+    <t>University of Texas at El Paso</t>
+  </si>
+  <si>
+    <t>California State University, Fresno</t>
+  </si>
+  <si>
+    <t>University of Arkansas at Little Rock</t>
+  </si>
+  <si>
+    <t>University of Texas at Arlington</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1394,6 +1493,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1452,10 +1565,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1469,8 +1583,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1783,2539 +1902,3094 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D467CA51-21CA-7748-B85A-78D1A786CD86}">
-  <dimension ref="A1:L189"/>
+  <dimension ref="A1:L218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="2.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5" style="2" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5" style="2" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>381</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>458</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2">
-        <v>198464</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
+      <c r="E2" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2">
-        <v>237525</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
+      <c r="A3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2">
-        <v>227757</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
+      <c r="A4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="J4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2">
-        <v>228246</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
+      <c r="A5" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2">
-        <v>228796</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
+      <c r="A6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="2">
-        <v>160755</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
+      <c r="A7" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="2">
-        <v>100663</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="2">
-        <v>132903</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
+      <c r="A9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="2">
-        <v>225511</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
+      <c r="A10" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="2">
-        <v>220862</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
+      <c r="A11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="2">
-        <v>176372</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
+      <c r="A12" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="2">
-        <v>207971</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>230038</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>80</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="2">
-        <v>197036</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>80</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <v>237525</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>227757</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2">
+        <v>160755</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B21" s="2">
+        <v>100663</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2">
+        <v>176372</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B25" s="2">
+        <v>228796</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2">
+        <v>150136</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2">
+        <v>201441</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2">
+        <v>169248</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2">
+        <v>169798</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2">
+        <v>203517</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2">
+        <v>204024</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>147703</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2015</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>204857</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2015</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2">
+        <v>196088</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2015</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2">
+        <v>200800</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2">
+        <v>206084</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2015</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2">
+        <v>172699</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2015</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="2">
+        <v>126818</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2015</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2">
+        <v>122409</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="2">
+        <v>128328</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="2">
+        <v>182281</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="2">
+        <v>187985</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2015</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="2">
+        <v>240727</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="2">
+        <v>106458</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="2">
+        <v>220978</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="2">
+        <v>102368</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="2">
+        <v>160658</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="2">
+        <v>159993</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2">
+        <v>227216</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="2">
+        <v>228875</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="2">
+        <v>230764</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="2">
+        <v>230038</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="2">
+        <v>197036</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="2">
         <v>164155</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="C69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="2">
         <v>152080</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" s="2">
+        <v>142115</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="2">
+        <v>110556</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B192" s="2">
+        <v>188030</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B193" s="2">
+        <v>122755</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B194" s="2">
+        <v>141574</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B195" s="2">
+        <v>182290</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B196" s="2">
+        <v>230728</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B197" s="2">
+        <v>197869</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" s="2">
+        <v>218724</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B201" s="2">
+        <v>139931</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B202" s="2">
+        <v>139940</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B204" s="2">
+        <v>232557</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B206" s="2">
+        <v>228459</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B207" s="2">
+        <v>166629</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L207" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B208" s="2">
+        <v>229027</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L208" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2">
-        <v>150136</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2">
-        <v>201441</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>169248</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2">
-        <v>169798</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2">
-        <v>203517</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="2">
-        <v>204024</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="2">
-        <v>147703</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="2">
-        <v>204857</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="2">
-        <v>216339</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="I26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2">
-        <v>196088</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="2" t="s">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B209" s="2">
+        <v>199139</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L209" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="2">
-        <v>200800</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="2">
-        <v>206084</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2015</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="2">
-        <v>172699</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="2">
-        <v>126818</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="2">
-        <v>122409</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2">
-        <v>228875</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="2">
-        <v>128328</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="2">
-        <v>182281</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="2">
-        <v>187985</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="2">
-        <v>230764</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="2">
-        <v>240727</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="2">
-        <v>106458</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="2">
-        <v>133669</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="2">
-        <v>133951</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="2">
-        <v>220978</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2">
-        <v>102368</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="2">
-        <v>160658</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="2">
-        <v>159993</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="2">
-        <v>227216</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="2">
-        <v>157951</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="2">
-        <v>142115</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="2">
-        <v>110556</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="2">
-        <v>159647</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="2">
-        <v>188030</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="2">
-        <v>122755</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="2">
-        <v>141574</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="2">
-        <v>182290</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="2">
-        <v>230728</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="2">
-        <v>197869</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="2">
-        <v>218724</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="2">
-        <v>139931</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="2">
-        <v>139940</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="2">
-        <v>232557</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="2">
-        <v>232982</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="2">
-        <v>228459</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="2">
-        <v>229027</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="2">
-        <v>166629</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="2">
-        <v>199139</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="2">
-        <v>102094</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" s="12"/>
+      <c r="B211" s="12"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A212" s="12"/>
+      <c r="B212" s="12"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A213" s="12"/>
+      <c r="B213" s="12"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A214" s="12"/>
+      <c r="B214" s="12"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A215" s="12"/>
+      <c r="B215" s="12"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A216" s="12"/>
+      <c r="B216" s="12"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A217" s="12"/>
+      <c r="B217" s="12"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A218" s="12"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K66" xr:uid="{D467CA51-21CA-7748-B85A-78D1A786CD86}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A67:D189">
-    <sortCondition ref="D67:D189"/>
+  <autoFilter ref="A1:L80" xr:uid="{D467CA51-21CA-7748-B85A-78D1A786CD86}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L218">
+    <sortCondition ref="C2:C218"/>
+    <sortCondition ref="D2:D218"/>
+    <sortCondition ref="E2:E218"/>
+    <sortCondition ref="A2:A218"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="J16" r:id="rId1" display="https://herdzone.com/staff-directory" xr:uid="{9732058B-11AD-D44B-805C-800566972084}"/>
+    <hyperlink ref="H19" r:id="rId2" display="https://riceowls.com/documents/2019/4/15/FINALRice_Athletics_Compliance_Revised_2_1_19.pdf" xr:uid="{413CB0AC-0FB0-4F4E-BBCC-1AFA823FDF65}"/>
+    <hyperlink ref="I19" r:id="rId3" xr:uid="{64144866-AC61-B141-BD48-E7E748170043}"/>
+    <hyperlink ref="H25" r:id="rId4" xr:uid="{01211F13-7E0D-B146-B057-52062FB5F47A}"/>
+    <hyperlink ref="H20" r:id="rId5" xr:uid="{BA95F9C1-E3D0-8445-8C7C-F44497CF17BA}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{AD1DA9DE-DD57-C042-AAD5-F84D5C0E0F18}"/>
+    <hyperlink ref="J2" r:id="rId7" xr:uid="{325FC2BA-5CE3-5246-B7A5-70D2D2B6B536}"/>
+    <hyperlink ref="H3" r:id="rId8" xr:uid="{9058DB2E-DC4B-DD48-8E02-CC04ADB49DCA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4324,46 +4998,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0D9B67-F931-AC4F-8B59-CC52BE3B18E2}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="45" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="65.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" t="s">
         <v>271</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>272</v>
       </c>
-      <c r="E1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F1" t="s">
-        <v>276</v>
-      </c>
       <c r="G1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4371,16 +5045,16 @@
         <v>232557</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>2019</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -4397,16 +5071,16 @@
         <v>232265</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4423,16 +5097,16 @@
         <v>192448</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C4">
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4449,16 +5123,16 @@
         <v>166850</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C5">
         <v>2019</v>
       </c>
       <c r="D5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4475,16 +5149,16 @@
         <v>101879</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C6">
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4501,16 +5175,16 @@
         <v>200280</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C7">
         <v>2019</v>
       </c>
       <c r="D7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" t="s">
         <v>283</v>
-      </c>
-      <c r="E7" t="s">
-        <v>287</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4527,16 +5201,16 @@
         <v>140960</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C8">
         <v>2019</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4553,16 +5227,16 @@
         <v>142285</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C9">
         <v>2018</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4579,16 +5253,16 @@
         <v>188030</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C10">
         <v>2018</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4605,16 +5279,16 @@
         <v>232557</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>2018</v>
       </c>
       <c r="D11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4631,16 +5305,16 @@
         <v>198136</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C12">
         <v>2018</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4657,16 +5331,16 @@
         <v>232265</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C13">
         <v>2018</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E13" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4683,16 +5357,16 @@
         <v>142285</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C14">
         <v>2018</v>
       </c>
       <c r="D14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -4709,16 +5383,16 @@
         <v>101879</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C15">
         <v>2018</v>
       </c>
       <c r="D15" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4735,16 +5409,16 @@
         <v>200280</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C16">
         <v>2018</v>
       </c>
       <c r="D16" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -4761,16 +5435,16 @@
         <v>218724</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>2017</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -4787,16 +5461,16 @@
         <v>100663</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>2017</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -4813,16 +5487,16 @@
         <v>166629</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C19">
         <v>2016</v>
       </c>
       <c r="D19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E19" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -4839,16 +5513,16 @@
         <v>218724</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>2016</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4865,16 +5539,16 @@
         <v>220075</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C21">
         <v>2016</v>
       </c>
       <c r="D21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4891,16 +5565,16 @@
         <v>199139</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22">
         <v>2015</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4914,10 +5588,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4934,16 +5608,16 @@
         <v>100663</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>2015</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4960,13 +5634,13 @@
         <v>220075</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C25">
         <v>2015</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -4980,16 +5654,16 @@
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C26">
         <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -5006,16 +5680,16 @@
         <v>197869</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>2014</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5032,16 +5706,16 @@
         <v>198464</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>2014</v>
       </c>
       <c r="D28" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -5058,16 +5732,16 @@
         <v>139931</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>2014</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5084,16 +5758,16 @@
         <v>142285</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C30">
         <v>2014</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5110,16 +5784,16 @@
         <v>157289</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C31">
         <v>2014</v>
       </c>
       <c r="D31" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E31" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5136,16 +5810,16 @@
         <v>163286</v>
       </c>
       <c r="B32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C32">
         <v>2014</v>
       </c>
       <c r="D32" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5162,16 +5836,16 @@
         <v>188030</v>
       </c>
       <c r="B33" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C33">
         <v>2014</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -5188,16 +5862,16 @@
         <v>232982</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>2014</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5214,16 +5888,16 @@
         <v>186380</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C35">
         <v>2014</v>
       </c>
       <c r="D35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" t="s">
         <v>322</v>
-      </c>
-      <c r="E35" t="s">
-        <v>326</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -5240,16 +5914,16 @@
         <v>160755</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <v>2014</v>
       </c>
       <c r="D36" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5266,16 +5940,16 @@
         <v>207971</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>2014</v>
       </c>
       <c r="D37" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E37" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5292,16 +5966,16 @@
         <v>157951</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>2014</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5318,16 +5992,16 @@
         <v>222178</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C39">
         <v>2014</v>
       </c>
       <c r="D39" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E39" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -5344,16 +6018,16 @@
         <v>197869</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>2014</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -5370,16 +6044,16 @@
         <v>198516</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C41">
         <v>2014</v>
       </c>
       <c r="D41" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5396,16 +6070,16 @@
         <v>139931</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>2014</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -5422,16 +6096,16 @@
         <v>225399</v>
       </c>
       <c r="B43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C43">
         <v>2014</v>
       </c>
       <c r="D43" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E43" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5448,16 +6122,16 @@
         <v>225627</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C44">
         <v>2014</v>
       </c>
       <c r="D44" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5474,16 +6148,16 @@
         <v>140447</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C45">
         <v>2014</v>
       </c>
       <c r="D45" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E45" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -5500,16 +6174,16 @@
         <v>185572</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C46">
         <v>2014</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5526,16 +6200,16 @@
         <v>232982</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>2014</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -5552,16 +6226,16 @@
         <v>234085</v>
       </c>
       <c r="B48" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C48">
         <v>2014</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -5578,16 +6252,16 @@
         <v>133669</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>2013</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5604,16 +6278,16 @@
         <v>133951</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>2013</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5630,16 +6304,16 @@
         <v>139940</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>2013</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -5656,16 +6330,16 @@
         <v>225511</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>2013</v>
       </c>
       <c r="D52" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -5682,16 +6356,16 @@
         <v>142285</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C53">
         <v>2013</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -5708,16 +6382,16 @@
         <v>159647</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>2013</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5734,16 +6408,16 @@
         <v>220862</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <v>2013</v>
       </c>
       <c r="D55" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E55" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5760,16 +6434,16 @@
         <v>220978</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C56">
         <v>2013</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5786,16 +6460,16 @@
         <v>188030</v>
       </c>
       <c r="B57" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C57">
         <v>2013</v>
       </c>
       <c r="D57" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E57" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -5812,16 +6486,16 @@
         <v>227216</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>2013</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5838,16 +6512,16 @@
         <v>215293</v>
       </c>
       <c r="B59" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C59">
         <v>2013</v>
       </c>
       <c r="D59" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E59" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5864,16 +6538,16 @@
         <v>122755</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C60">
         <v>2013</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -5890,16 +6564,16 @@
         <v>228246</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C61">
         <v>2013</v>
       </c>
       <c r="D61" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E61" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5916,16 +6590,16 @@
         <v>196413</v>
       </c>
       <c r="B62" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C62">
         <v>2013</v>
       </c>
       <c r="D62" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -5942,16 +6616,16 @@
         <v>228459</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C63">
         <v>2013</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5968,16 +6642,16 @@
         <v>132903</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C64">
         <v>2013</v>
       </c>
       <c r="D64" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5994,16 +6668,16 @@
         <v>230728</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C65">
         <v>2013</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -6020,16 +6694,16 @@
         <v>229027</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C66">
         <v>2013</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -6046,16 +6720,16 @@
         <v>222178</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C67">
         <v>2013</v>
       </c>
       <c r="D67" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E67" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -6072,16 +6746,16 @@
         <v>196060</v>
       </c>
       <c r="B68" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C68">
         <v>2013</v>
       </c>
       <c r="D68" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -6098,16 +6772,16 @@
         <v>199139</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C69">
         <v>2013</v>
       </c>
       <c r="D69" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E69" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -6124,16 +6798,16 @@
         <v>225399</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C70">
         <v>2013</v>
       </c>
       <c r="D70" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6150,16 +6824,16 @@
         <v>225627</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C71">
         <v>2013</v>
       </c>
       <c r="D71" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E71" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -6176,16 +6850,16 @@
         <v>140447</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C72">
         <v>2013</v>
       </c>
       <c r="D72" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -6202,16 +6876,16 @@
         <v>185572</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C73">
         <v>2013</v>
       </c>
       <c r="D73" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E73" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -6228,16 +6902,16 @@
         <v>232982</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>2013</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -6254,16 +6928,16 @@
         <v>137546</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C75">
         <v>2013</v>
       </c>
       <c r="D75" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E75" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -6280,16 +6954,16 @@
         <v>196097</v>
       </c>
       <c r="B76" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C76">
         <v>2013</v>
       </c>
       <c r="D76" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -6306,16 +6980,16 @@
         <v>110556</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C77">
         <v>2012</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -6332,16 +7006,16 @@
         <v>141574</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C78">
         <v>2012</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6358,16 +7032,16 @@
         <v>166629</v>
       </c>
       <c r="B79" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C79">
         <v>2012</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -6384,16 +7058,16 @@
         <v>178396</v>
       </c>
       <c r="B80" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C80">
         <v>2012</v>
       </c>
       <c r="D80" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6410,16 +7084,16 @@
         <v>182290</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C81">
         <v>2012</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6436,16 +7110,16 @@
         <v>102094</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C82">
         <v>2012</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -6462,16 +7136,16 @@
         <v>228875</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C83">
         <v>2012</v>
       </c>
       <c r="D83" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E83" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6488,16 +7162,16 @@
         <v>216339</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C84">
         <v>2012</v>
       </c>
       <c r="D84" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6514,16 +7188,16 @@
         <v>228723</v>
       </c>
       <c r="B85" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C85">
         <v>2012</v>
       </c>
       <c r="D85" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E85" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6540,16 +7214,16 @@
         <v>228459</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C86">
         <v>2012</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -6566,16 +7240,16 @@
         <v>229027</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C87">
         <v>2012</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -6592,16 +7266,16 @@
         <v>238032</v>
       </c>
       <c r="B88" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C88">
         <v>2012</v>
       </c>
       <c r="D88" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6618,16 +7292,16 @@
         <v>110422</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C89">
         <v>2012</v>
       </c>
       <c r="D89" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E89" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6644,16 +7318,16 @@
         <v>139940</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C90">
         <v>2012</v>
       </c>
       <c r="D90" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6670,16 +7344,16 @@
         <v>200280</v>
       </c>
       <c r="B91" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C91">
         <v>2012</v>
       </c>
       <c r="D91" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E91" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6696,16 +7370,16 @@
         <v>219471</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C92">
         <v>2012</v>
       </c>
       <c r="D92" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6722,16 +7396,16 @@
         <v>230603</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C93">
         <v>2012</v>
       </c>
       <c r="D93" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E93" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -6748,16 +7422,16 @@
         <v>110644</v>
       </c>
       <c r="B94" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C94">
         <v>2012</v>
       </c>
       <c r="D94" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -6774,16 +7448,16 @@
         <v>142115</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C95">
         <v>2011</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -6800,16 +7474,16 @@
         <v>230038</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C96">
         <v>2011</v>
       </c>
       <c r="D96" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -6826,16 +7500,16 @@
         <v>126614</v>
       </c>
       <c r="B97" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C97">
         <v>2011</v>
       </c>
       <c r="D97" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E97" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -6852,16 +7526,16 @@
         <v>181464</v>
       </c>
       <c r="B98" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C98">
         <v>2011</v>
       </c>
       <c r="D98" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -6878,16 +7552,16 @@
         <v>230764</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C99">
         <v>2011</v>
       </c>
       <c r="D99" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E99" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -6908,8 +7582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24EC4B6-A72A-6F4D-8AD0-6C81EB27A750}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="131" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A2" zoomScale="131" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6920,362 +7594,362 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B57" s="2"/>
     </row>
